--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2826570.981319799</v>
+        <v>2824027.171812717</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>21.31870353900228</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>212.568965117905</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>45.86835121197986</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>10.09427429948339</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>16.39467431752531</v>
       </c>
       <c r="V4" t="n">
-        <v>214.3683096848172</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.4450108596165</v>
+        <v>7.155295256393265</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.27576974090346</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>28.33708868093433</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27.97091099520375</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>53.15804997383184</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54915978824949</v>
+        <v>262.249587688144</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>190.516491863668</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592521</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
         <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115225</v>
+        <v>18.47335059663067</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.34571932180401</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>120.3787038611892</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.7122866515512</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223571</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576074</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605716112</v>
+        <v>41.01175877060116</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.930370072261</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571245</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899464</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>159.1024872545643</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="X2" t="n">
-        <v>840.1393936243026</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.7617370571245</v>
+        <v>166.0479880037678</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>167.9129401811201</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>167.9129401811201</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>167.9129401811201</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>141.1068094710482</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>287.8512331313449</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1026.32339954667</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U3" t="n">
-        <v>1026.32339954667</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="V3" t="n">
-        <v>1026.32339954667</v>
+        <v>629.9105956742757</v>
       </c>
       <c r="W3" t="n">
-        <v>1026.32339954667</v>
+        <v>375.673238946074</v>
       </c>
       <c r="X3" t="n">
-        <v>818.4718993411373</v>
+        <v>375.673238946074</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>167.9129401811201</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>343.9546663945495</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C4" t="n">
-        <v>175.0184834666425</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>684.0336785103124</v>
       </c>
       <c r="V4" t="n">
-        <v>838.3218738597448</v>
+        <v>684.0336785103124</v>
       </c>
       <c r="W4" t="n">
-        <v>571.9442172925668</v>
+        <v>417.6560219431344</v>
       </c>
       <c r="X4" t="n">
-        <v>343.9546663945495</v>
+        <v>189.666471045117</v>
       </c>
       <c r="Y4" t="n">
-        <v>343.9546663945495</v>
+        <v>189.666471045117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>833.193892875099</v>
+        <v>566.8162363079211</v>
       </c>
       <c r="C5" t="n">
-        <v>566.8162363079209</v>
+        <v>566.8162363079211</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>566.8162363079211</v>
       </c>
       <c r="E5" t="n">
-        <v>300.438579740743</v>
+        <v>566.8162363079211</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407431</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H5" t="n">
         <v>21.0971104001205</v>
@@ -4565,22 +4565,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030612</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991325</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.514968335842</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.421463841153</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.421463841153</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.421463841153</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>574.0438072739749</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
         <v>21.0971104001205</v>
@@ -4644,52 +4644,52 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004806</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699348</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302314</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166548</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>691.0742594480924</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>462.9384134849059</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>418.2154137466196</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.9087497860237</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C7" t="n">
-        <v>224.9087497860237</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>74.79211037368802</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>74.79211037368802</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>74.79211037368802</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
         <v>21.0971104001205</v>
@@ -4729,16 +4729,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4750,25 @@
         <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512191</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512191</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>719.2759572512191</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>719.2759572512191</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="W7" t="n">
-        <v>452.8983006840411</v>
+        <v>445.9094673928352</v>
       </c>
       <c r="X7" t="n">
-        <v>224.9087497860237</v>
+        <v>217.9199164948178</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.9087497860237</v>
+        <v>217.9199164948178</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.916929169387</v>
+        <v>985.3952443693192</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.916929169387</v>
+        <v>985.3952443693192</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626363</v>
+        <v>627.1295457625688</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643921</v>
+        <v>627.1295457625688</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478461</v>
+        <v>620.1840450133653</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685584</v>
+        <v>355.2854715909976</v>
       </c>
       <c r="H8" t="n">
         <v>51.21125520685584</v>
@@ -4802,10 +4802,10 @@
         <v>51.21125520685584</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607441</v>
+        <v>442.1757437607434</v>
       </c>
       <c r="L8" t="n">
         <v>795.1862829045958</v>
@@ -4817,10 +4817,10 @@
         <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940603</v>
+        <v>2053.905718940602</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550206</v>
+        <v>2359.356530550205</v>
       </c>
       <c r="Q8" t="n">
         <v>2540.564622661172</v>
@@ -4832,22 +4832,22 @@
         <v>2560.562760342792</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342792</v>
+        <v>2351.810676439065</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342792</v>
+        <v>2098.229497964635</v>
       </c>
       <c r="V8" t="n">
-        <v>2368.1218594704</v>
+        <v>2098.229497964635</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.1218594704</v>
+        <v>1745.460842694521</v>
       </c>
       <c r="X8" t="n">
-        <v>1994.65610120932</v>
+        <v>1371.995084433441</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.516769233509</v>
+        <v>1371.995084433441</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>300.3502688801381</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763262</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993892</v>
+        <v>69.87120530446258</v>
       </c>
       <c r="I9" t="n">
         <v>51.21125520685584</v>
       </c>
       <c r="J9" t="n">
-        <v>238.318882950724</v>
+        <v>113.4887579637193</v>
       </c>
       <c r="K9" t="n">
-        <v>613.759824133186</v>
+        <v>559.9063389572718</v>
       </c>
       <c r="L9" t="n">
-        <v>908.2958075666681</v>
+        <v>1116.272322425159</v>
       </c>
       <c r="M9" t="n">
-        <v>1271.36227604097</v>
+        <v>1479.338790899461</v>
       </c>
       <c r="N9" t="n">
-        <v>1658.446678513541</v>
+        <v>1866.423193372031</v>
       </c>
       <c r="O9" t="n">
-        <v>1990.333488500931</v>
+        <v>2198.310003359421</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930556</v>
+        <v>2445.345361789046</v>
       </c>
       <c r="Q9" t="n">
         <v>2560.562760342792</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>715.9213805686181</v>
+        <v>220.1474381347628</v>
       </c>
       <c r="C10" t="n">
-        <v>546.9851976407112</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="D10" t="n">
-        <v>396.8685582283755</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="E10" t="n">
-        <v>248.9554646459824</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="F10" t="n">
-        <v>102.065517148072</v>
+        <v>51.21125520685584</v>
       </c>
       <c r="G10" t="n">
         <v>51.21125520685584</v>
@@ -4984,28 +4984,28 @@
         <v>1635.769145477366</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477366</v>
+        <v>1533.156055412623</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477366</v>
+        <v>1336.515802634457</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477366</v>
+        <v>1113.534501108863</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477366</v>
+        <v>824.4161276035045</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477366</v>
+        <v>569.7316393976176</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440405</v>
+        <v>569.7316393976176</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542388</v>
+        <v>341.7420884996003</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988579</v>
+        <v>220.1474381347628</v>
       </c>
     </row>
     <row r="11">
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,16 +5048,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,16 +5297,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,49 +5501,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797203</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075904</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332396</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014788</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355946</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694716</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852264</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398602</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492586</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474792</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466574</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797203</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273917</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872168</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5625,7 +5625,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V18" t="n">
         <v>1781.463605996603</v>
@@ -5634,7 +5634,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.614450297915</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797203</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797203</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5890,16 +5890,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6127,16 +6127,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191924</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>923.067041434951</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266882</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191924</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.067041434951</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266882</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444888</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684175</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6923,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.043492616109</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,31 +7075,31 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7166,28 +7166,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,7 +7208,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718135</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2023.916610740955</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.232122535068</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797169</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192576</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075805</v>
@@ -7427,16 +7427,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852246</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398584</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492569</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,58 +7464,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568976</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797169</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797169</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797169</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452619</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718135</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107661</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T42" t="n">
         <v>2244.643795685161</v>
@@ -7533,7 +7533,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797169</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797169</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7643,16 +7643,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192707</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615996</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452619</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718135</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797186</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.78351343583188</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544045</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.3728896106911</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>192.7716614458205</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>264.4747475095001</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.98618304348486</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>9.890754881780595e-12</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-12</v>
       </c>
       <c r="R41" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.11969353038612</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187251</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606955</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405078</v>
+        <v>99.28295407562273</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584158</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.876258416</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>754539.8762584158</v>
+        <v>754539.8762584159</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>754539.8762584159</v>
+        <v>754539.8762584156</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380329</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442549</v>
@@ -26332,28 +26332,28 @@
         <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,28 +26372,28 @@
         <v>390680.0076580811</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606912</v>
+        <v>507909.2320606909</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.231971383385827e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191139</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101815</v>
+        <v>95270.23779101811</v>
       </c>
       <c r="M3" t="n">
         <v>132717.9756954685</v>
@@ -26418,46 +26418,46 @@
         <v>247648.5670423891</v>
       </c>
       <c r="C4" t="n">
-        <v>247648.567042389</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
         <v>135650.8557716739</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744324</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.25639174454</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744308</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744286</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744304</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
+        <v>8727.256391744344</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="H4" t="n">
-        <v>8727.2563917443</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
+        <v>8727.256391744442</v>
+      </c>
+      <c r="P4" t="n">
         <v>8727.256391744328</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744373</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744326</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744326</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744319</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8727.256391744317</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
         <v>92902.86757567915</v>
@@ -26482,7 +26482,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26506,7 +26506,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-313424.8906998152</v>
+        <v>-313424.8906998148</v>
       </c>
       <c r="C6" t="n">
-        <v>366663.0898913777</v>
+        <v>366663.0898913781</v>
       </c>
       <c r="D6" t="n">
-        <v>58125.7291325994</v>
+        <v>58125.72913259943</v>
       </c>
       <c r="E6" t="n">
-        <v>48136.92646791237</v>
+        <v>48102.18854247693</v>
       </c>
       <c r="F6" t="n">
-        <v>556046.1585286035</v>
+        <v>556011.4206031678</v>
       </c>
       <c r="G6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.4206031669</v>
       </c>
       <c r="H6" t="n">
-        <v>556046.1585286035</v>
+        <v>556011.4206031683</v>
       </c>
       <c r="I6" t="n">
-        <v>556046.1585286035</v>
+        <v>556011.420603168</v>
       </c>
       <c r="J6" t="n">
-        <v>487047.0041094896</v>
+        <v>487012.2661840538</v>
       </c>
       <c r="K6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.4206031681</v>
       </c>
       <c r="L6" t="n">
-        <v>460775.9207375852</v>
+        <v>460741.1828121498</v>
       </c>
       <c r="M6" t="n">
-        <v>423328.182833135</v>
+        <v>423293.4449076995</v>
       </c>
       <c r="N6" t="n">
-        <v>556046.1585286035</v>
+        <v>556011.4206031681</v>
       </c>
       <c r="O6" t="n">
-        <v>556046.1585286036</v>
+        <v>556011.4206031677</v>
       </c>
       <c r="P6" t="n">
-        <v>556046.1585286034</v>
+        <v>556011.4206031678</v>
       </c>
     </row>
   </sheetData>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.123092671879303e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.123092671879303e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>3.519713256482333e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
         <v>933.7024595627846</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
         <v>640.140690085698</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099646</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.123092671879303e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933062</v>
+        <v>319.6474457933064</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788891</v>
+        <v>434.2730407788889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>376.4268100841917</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139504</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>376.4268100841915</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139506</v>
+        <v>532.5675980139504</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>376.4268100841917</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139504</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>391.5154711067077</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>157.162135560564</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>111.7767292434211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>184.7467132853934</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>269.8639561851522</v>
       </c>
       <c r="V4" t="n">
-        <v>37.76933363901077</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.288830803864</v>
+        <v>375.5785464070873</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>143.1621657402052</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776173</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27667,7 +27667,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.5248174085218</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>177.4358965225431</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>151.8610691867335</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>113.7256170647147</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>149.2995721001055</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.76608425465008</v>
@@ -27904,22 +27904,22 @@
         <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>137.2357666064669</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.77644916452158</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164521576</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.9615342899022</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>98.20594949090562</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.152678615009791e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7.394985773160066e-13</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>671.2522281007823</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814928</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663298</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356908</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33029,31 +33029,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>597.1709559744736</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33266,31 +33266,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>597.1709559744736</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319857</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33977,31 +33977,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963288</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,34 +34211,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963288</v>
+        <v>423.9151577118739</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,34 +34448,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,19 +34775,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>121.2219182534623</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.997603781685</v>
+        <v>62.90656844127619</v>
       </c>
       <c r="K9" t="n">
-        <v>379.2332739216789</v>
+        <v>450.926849488437</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772547</v>
+        <v>561.9858418867548</v>
       </c>
       <c r="M9" t="n">
         <v>366.7338065396992</v>
@@ -35270,7 +35270,7 @@
         <v>249.5306650804294</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961982</v>
+        <v>116.3812106603491</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>528.6559836563379</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367868</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.9999866016186</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>132.4173135558166</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>372.0991318096486</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>455.0369220524552</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>455.0369220524552</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875412</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164546</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924637</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164546</v>
+        <v>285.3607779319997</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164546</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
